--- a/GATEWAY/A1#111#NIDEKTECHNOLOGIESSRLXX/nidek-technologies/nlife/210/report-checklist.xlsx
+++ b/GATEWAY/A1#111#NIDEKTECHNOLOGIESSRLXX/nidek-technologies/nlife/210/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAD\08 - Lab\FSE\validazione_accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936222C-0E11-45EB-9137-E60BD2FB7854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC15F2EF-7718-4E71-B3EC-A3251C8B70D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -373,13 +376,13 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-24T16:03:48Z</t>
-  </si>
-  <si>
-    <t>e6ce246ce15445b9fb7ef137ac7ed977</t>
+    <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>2026-02-18T15:29:48Z</t>
+  </si>
+  <si>
+    <t>88aa39bf7dae6cfb981396187b3a1386</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -388,8 +391,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">Errore di Pubblicazione del Documento
- Si è verificato un errore durante la pubblicazione del documento nel repository FSE. Contattare l'amministratore di sistema del software </t>
+    <t>Errore di Pubblicazione del Documento: Si è verificato un errore durante la pubblicazione del documento nel repository FSE. Contattare l'amministratore di sistema del software</t>
   </si>
   <si>
     <t>NO</t>
@@ -473,7 +475,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>96603bd8173b44a32c581e370b5b2dcf</t>
+    <t>2026-02-18T15:29:49Z</t>
+  </si>
+  <si>
+    <t>d711705d33016adf14cada9fe9262d19</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
@@ -504,6 +509,10 @@
     <t>VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Errore di Pubblicazione del Documento
+ Si è verificato un errore durante la pubblicazione del documento nel repository FSE. Contattare l'amministratore di sistema del software </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CERT_VAC_TIMEOUT</t>
   </si>
   <si>
@@ -1087,13 +1096,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:49Z</t>
-  </si>
-  <si>
-    <t>ac739396f5564527759c62cb39b3b0e7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a8f38aa811^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>d517e937e1d1400c5d19999e1dea17bf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b69f249dcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -1103,10 +1109,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>0ddf9814094626c72c15ec1c9d198986</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b326717fa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>103f1c3a28214de230591f9b6a8c7fb5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a64ccbb8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
@@ -1116,13 +1122,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:50Z</t>
-  </si>
-  <si>
-    <t>d2a0a0f927d5d41405213255dc33624b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.713807e357^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-18T15:29:50Z</t>
+  </si>
+  <si>
+    <t>dc3b881d0fbf563de562d854b65a4072</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d908e198db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
@@ -1132,10 +1138,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>86f3ddb2d0a35e1d214729f788688f3f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ac8b120a8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b604d3bba62b49a275f82bb11ecec2aa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.59ece9afa4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -1145,10 +1151,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>61caabbc8382246f9e8efd2f932878ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6a5d454341^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>8bcbf8d2cfd464f9a8261bc1d062059a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2fae2daec9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -1158,13 +1164,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:51Z</t>
-  </si>
-  <si>
-    <t>759326a3f340a89d70f838ab01479ba5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b7c10f991e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-18T15:29:51Z</t>
+  </si>
+  <si>
+    <t>73cd974d16215e891c8ab5e5a6d89e28</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1720a2f821^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -1174,10 +1180,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>86756bf2254d8b7998d798c29e9e8471</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1595e78c84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>90f60dc5709362969d025dec33ca5377</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2dc2dd82bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -1187,10 +1193,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>f52a1041ff65efc9bf040f2f02f5608b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.83361bcfe7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b63559b492a01e6baada6d6795d3b7bd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4ce61c536b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1200,10 +1206,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c8dc1f6d6a3eddcdf842422611c1b07c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.333763e2fb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>680c90b5d639ccc599ff714cd53578b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.82df05b23d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -1213,13 +1219,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:52Z</t>
-  </si>
-  <si>
-    <t>505f8a16caca1e8fda6de91a925fa8b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d57cf623c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-18T15:29:52Z</t>
+  </si>
+  <si>
+    <t>4370a1a978fe4c717909f8fad1a4d7af</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1fdb5f5c14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
@@ -1229,10 +1235,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2d885b6a47d5cc8268df62f30a65a24e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.145fd1b419^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3759c0f1e0d2ac265dc9710bf9b5ef23</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ae3eb1a90e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
@@ -1242,10 +1248,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e52b71792d6cc5e4fd08d04223f4709a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.650bba832a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3c0dbb3592927c5ac62d9baa5bafad7c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fb78504f9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
@@ -1255,13 +1261,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:53Z</t>
-  </si>
-  <si>
-    <t>28d4a28d1b151978ac7aaa270b3da185</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ee5b2d6fec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-18T15:29:53Z</t>
+  </si>
+  <si>
+    <t>2c3d36c444b733bb3189458a677f2215</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.52bdc003a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
@@ -1271,10 +1277,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>8afcdfc1d0b79f88c38cd466572e90a4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.60c23a3c7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3b031e759002c8f65793fe4d61a2ec8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.767f2cf085^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -1284,10 +1290,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>ee48a4a94b94cbbb6adcae72452a41d5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9466607c7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>520b717dbb82377f88296d259e01c64b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f90aea336b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1421,6 +1427,15 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2026-02-18T15:29:55Z</t>
+  </si>
+  <si>
+    <t>89f3050195720b7d9ef8642aaf43d362</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.6b9831ae35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAP_CT2</t>
   </si>
   <si>
@@ -1429,6 +1444,15 @@
 </t>
   </si>
   <si>
+    <t>2026-02-18T15:29:56Z</t>
+  </si>
+  <si>
+    <t>9dfb906ceac6c4efa285976ebadabc61</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.bac5e97ea2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAP_CT3</t>
   </si>
   <si>
@@ -1527,13 +1551,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:54Z</t>
-  </si>
-  <si>
-    <t>c7041e8fd0420ef6760e2ed3bdf12f57</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0804020715^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-18T15:29:54Z</t>
+  </si>
+  <si>
+    <t>ea8eb4f0cd8bf2365989078f215c9a87</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b9f038931f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1543,10 +1567,10 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>6ba6c432f22c36c1e2a9ea497ac2be04</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e38ca5bc30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>147f1dc5897196422a4b32f078af58f7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a65d42f3b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1554,6 +1578,12 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>00416b6a28c2d76be1eaec78c3e497ed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d3017a9cb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT18</t>
@@ -1571,6 +1601,15 @@
 </t>
   </si>
   <si>
+    <t>2026-02-18T15:29:57Z</t>
+  </si>
+  <si>
+    <t>58e901fe93335989b6829886945249e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.efe7baaca8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
   </si>
   <si>
@@ -1578,6 +1617,12 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>528d70b9ee1ebd0922ba6cc754949eb4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.488a64065f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT31</t>
   </si>
   <si>
@@ -1592,6 +1637,12 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>235c881b915ee30b1f6fef269b5c8efc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.5b54a608be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
   </si>
   <si>
@@ -1599,6 +1650,15 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2026-02-18T15:29:58Z</t>
+  </si>
+  <si>
+    <t>693818f9602bc982fc6fbacb960c79c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.ae96500dc5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
   </si>
   <si>
@@ -1606,6 +1666,12 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>791dcd8f177629edc597f735b6a3a39c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.bfa41dfe98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
   </si>
   <si>
@@ -1620,6 +1686,12 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>5e138ed49d3b22fcc36ebed7bcaa1df1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.a7b9835801^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
   </si>
   <si>
@@ -1627,10 +1699,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>d9de1fd4b92a0477e2e09a2637bddbef</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.226bfba79b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>d91957df06534fd423664de5388c5d41</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4cb97d112b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
@@ -1682,13 +1754,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-12-24T16:03:55Z</t>
-  </si>
-  <si>
-    <t>37f39efa3a993fc10ad4516ade083c8c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7e77d59369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>8c4d4232e4e008f8a79b63d7cf17d6b8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.69d82e9168^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
@@ -1712,6 +1781,12 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>0484abe7af8ae2ccedc35436033eba6f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.00efa3fe1a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
@@ -1740,10 +1815,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2c05f526de5c3c0fb8f2ab02cb47c252</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e0a3c3c8e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>a87945d951472b78ea979f2ae5ff3445</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c80327c331^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT23</t>
@@ -1984,14 +2059,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2367,7 +2444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2493,7 +2570,7 @@
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="25" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="25" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
@@ -2510,9 +2587,10 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2868,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="75">
+    <row r="4" ht="90">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +3002,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3998,7 +4076,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4125,7 @@
       <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4068,11 +4146,11 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="53"/>
@@ -4096,9 +4174,9 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="53"/>
@@ -4123,9 +4201,9 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="53"/>
@@ -4470,7 +4548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="150.75">
+    <row r="15" ht="11.1" customHeight="1">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -4498,35 +4576,37 @@
       <c r="I15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="48" t="s">
+      <c r="O15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="40"/>
+      <c r="V15" s="40">
+        <v>403</v>
+      </c>
       <c r="W15" s="38" t="s">
         <v>54</v>
       </c>
@@ -4753,7 +4833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" hidden="1" ht="165.75">
+    <row r="22" hidden="1" ht="11.1" customHeight="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -4773,16 +4853,16 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="49"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
@@ -4790,7 +4870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="177" customHeight="1">
+    <row r="23" ht="11.1" customHeight="1">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -4810,43 +4890,45 @@
         <v>63</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="47" t="s">
+      <c r="N23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="P23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q23" s="47" t="s">
+      <c r="Q23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
-      <c r="V23" s="40"/>
+      <c r="V23" s="40">
+        <v>403</v>
+      </c>
       <c r="W23" s="38" t="s">
         <v>54</v>
       </c>
@@ -4862,7 +4944,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>78</v>
@@ -4899,7 +4981,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>78</v>
@@ -4936,7 +5018,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="43" t="s">
         <v>78</v>
@@ -4973,10 +5055,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -5012,10 +5094,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>88</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -5051,10 +5133,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -5090,10 +5172,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -5118,7 +5200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" ht="150.75">
+    <row r="31" ht="11.1" customHeight="1">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5129,16 +5211,18 @@
         <v>61</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="47" t="s">
@@ -5148,7 +5232,7 @@
         <v>67</v>
       </c>
       <c r="O31" s="48" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="P31" s="47" t="s">
         <v>67</v>
@@ -5182,10 +5266,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5221,10 +5305,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5260,10 +5344,10 @@
         <v>75</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5299,10 +5383,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5336,10 +5420,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5373,10 +5457,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5410,10 +5494,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5447,10 +5531,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5484,10 +5568,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5521,10 +5605,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5558,10 +5642,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5595,10 +5679,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5632,10 +5716,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5669,10 +5753,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5706,10 +5790,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5743,10 +5827,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5780,10 +5864,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5817,10 +5901,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5854,10 +5938,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5891,10 +5975,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5928,10 +6012,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5965,10 +6049,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -6002,10 +6086,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -6039,10 +6123,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -6076,10 +6160,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -6113,10 +6197,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -6150,10 +6234,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6187,10 +6271,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6224,10 +6308,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6261,10 +6345,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6298,10 +6382,10 @@
         <v>59</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6335,10 +6419,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6372,10 +6456,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6409,10 +6493,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -6446,10 +6530,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6483,10 +6567,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6520,10 +6604,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6557,10 +6641,10 @@
         <v>71</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6594,10 +6678,10 @@
         <v>71</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6631,10 +6715,10 @@
         <v>71</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6668,10 +6752,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6705,10 +6789,10 @@
         <v>71</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6742,10 +6826,10 @@
         <v>71</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6779,10 +6863,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6816,10 +6900,10 @@
         <v>71</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6853,10 +6937,10 @@
         <v>71</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6890,10 +6974,10 @@
         <v>71</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6927,10 +7011,10 @@
         <v>71</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6964,10 +7048,10 @@
         <v>73</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -7001,10 +7085,10 @@
         <v>73</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -7038,10 +7122,10 @@
         <v>73</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -7075,10 +7159,10 @@
         <v>73</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -7112,10 +7196,10 @@
         <v>73</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7149,10 +7233,10 @@
         <v>73</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7186,10 +7270,10 @@
         <v>73</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7223,10 +7307,10 @@
         <v>73</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7260,10 +7344,10 @@
         <v>73</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7297,10 +7381,10 @@
         <v>73</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7334,10 +7418,10 @@
         <v>73</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7371,10 +7455,10 @@
         <v>73</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7408,10 +7492,10 @@
         <v>73</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7445,10 +7529,10 @@
         <v>75</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7482,10 +7566,10 @@
         <v>75</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7519,10 +7603,10 @@
         <v>75</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7556,10 +7640,10 @@
         <v>75</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7593,10 +7677,10 @@
         <v>75</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7630,10 +7714,10 @@
         <v>75</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7667,10 +7751,10 @@
         <v>75</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7704,10 +7788,10 @@
         <v>75</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7741,10 +7825,10 @@
         <v>75</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7778,10 +7862,10 @@
         <v>75</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7815,10 +7899,10 @@
         <v>75</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7852,10 +7936,10 @@
         <v>75</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7889,10 +7973,10 @@
         <v>75</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -7926,10 +8010,10 @@
         <v>75</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7963,10 +8047,10 @@
         <v>75</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -8000,10 +8084,10 @@
         <v>75</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -8037,10 +8121,10 @@
         <v>75</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -8074,10 +8158,10 @@
         <v>75</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8111,10 +8195,10 @@
         <v>75</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8148,10 +8232,10 @@
         <v>75</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8185,10 +8269,10 @@
         <v>75</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8222,10 +8306,10 @@
         <v>75</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8259,10 +8343,10 @@
         <v>75</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8285,7 +8369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" ht="150.75">
+    <row r="116" ht="11.1" customHeight="1">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -8296,57 +8380,59 @@
         <v>61</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F116" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="J116" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="J116" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47" t="s">
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N116" s="47" t="s">
+      <c r="N116" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O116" s="48" t="s">
+      <c r="O116" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P116" s="47" t="s">
+      <c r="P116" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q116" s="47" t="s">
+      <c r="Q116" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R116" s="47" t="s">
+      <c r="R116" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S116" s="49" t="s">
+      <c r="S116" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
-      <c r="V116" s="40"/>
+      <c r="V116" s="40">
+        <v>422</v>
+      </c>
       <c r="W116" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="117" ht="150.75">
+    <row r="117" ht="11.1" customHeight="1">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -8357,57 +8443,59 @@
         <v>61</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F117" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="J117" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="J117" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47" t="s">
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N117" s="47" t="s">
+      <c r="N117" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O117" s="48" t="s">
+      <c r="O117" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P117" s="47" t="s">
+      <c r="P117" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q117" s="47" t="s">
+      <c r="Q117" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R117" s="47" t="s">
+      <c r="R117" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S117" s="49" t="s">
+      <c r="S117" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
-      <c r="V117" s="40"/>
+      <c r="V117" s="40">
+        <v>422</v>
+      </c>
       <c r="W117" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="118" ht="150.75">
+    <row r="118" ht="11.1" customHeight="1">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -8418,57 +8506,59 @@
         <v>61</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="J118" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="J118" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K118" s="47"/>
-      <c r="L118" s="47"/>
-      <c r="M118" s="47" t="s">
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N118" s="47" t="s">
+      <c r="N118" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O118" s="48" t="s">
+      <c r="O118" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P118" s="47" t="s">
+      <c r="P118" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q118" s="47" t="s">
+      <c r="Q118" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R118" s="47" t="s">
+      <c r="R118" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S118" s="49" t="s">
+      <c r="S118" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
-      <c r="V118" s="40"/>
+      <c r="V118" s="40">
+        <v>422</v>
+      </c>
       <c r="W118" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" ht="150.75">
+    <row r="119" ht="11.1" customHeight="1">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -8479,57 +8569,59 @@
         <v>61</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F119" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="J119" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="J119" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47" t="s">
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N119" s="47" t="s">
+      <c r="N119" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O119" s="48" t="s">
+      <c r="O119" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P119" s="47" t="s">
+      <c r="P119" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q119" s="47" t="s">
+      <c r="Q119" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R119" s="47" t="s">
+      <c r="R119" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S119" s="49" t="s">
+      <c r="S119" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
-      <c r="V119" s="40"/>
+      <c r="V119" s="40">
+        <v>400</v>
+      </c>
       <c r="W119" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" ht="150.75">
+    <row r="120" ht="11.1" customHeight="1">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -8540,57 +8632,59 @@
         <v>61</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F120" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="J120" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J120" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K120" s="47"/>
-      <c r="L120" s="47"/>
-      <c r="M120" s="47" t="s">
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N120" s="47" t="s">
+      <c r="N120" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O120" s="48" t="s">
+      <c r="O120" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P120" s="47" t="s">
+      <c r="P120" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="47" t="s">
+      <c r="Q120" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R120" s="47" t="s">
+      <c r="R120" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S120" s="49" t="s">
+      <c r="S120" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
-      <c r="V120" s="40"/>
+      <c r="V120" s="40">
+        <v>400</v>
+      </c>
       <c r="W120" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="121" ht="150.75">
+    <row r="121" ht="11.1" customHeight="1">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -8601,57 +8695,59 @@
         <v>61</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F121" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="J121" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="J121" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K121" s="47"/>
-      <c r="L121" s="47"/>
-      <c r="M121" s="47" t="s">
+      <c r="K121" s="38"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N121" s="47" t="s">
+      <c r="N121" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O121" s="48" t="s">
+      <c r="O121" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P121" s="47" t="s">
+      <c r="P121" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q121" s="47" t="s">
+      <c r="Q121" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R121" s="47" t="s">
+      <c r="R121" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S121" s="49" t="s">
+      <c r="S121" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
-      <c r="V121" s="40"/>
+      <c r="V121" s="40">
+        <v>400</v>
+      </c>
       <c r="W121" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" ht="150.75">
+    <row r="122" ht="11.1" customHeight="1">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -8662,57 +8758,59 @@
         <v>61</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F122" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="J122" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="J122" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K122" s="47"/>
-      <c r="L122" s="47"/>
-      <c r="M122" s="47" t="s">
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N122" s="47" t="s">
+      <c r="N122" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O122" s="48" t="s">
+      <c r="O122" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P122" s="47" t="s">
+      <c r="P122" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q122" s="47" t="s">
+      <c r="Q122" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R122" s="47" t="s">
+      <c r="R122" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S122" s="49" t="s">
+      <c r="S122" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
-      <c r="V122" s="40"/>
+      <c r="V122" s="40">
+        <v>422</v>
+      </c>
       <c r="W122" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" ht="150.75">
+    <row r="123" ht="11.1" customHeight="1">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -8723,57 +8821,59 @@
         <v>61</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F123" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="J123" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="J123" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K123" s="47"/>
-      <c r="L123" s="47"/>
-      <c r="M123" s="47" t="s">
+      <c r="K123" s="38"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N123" s="47" t="s">
+      <c r="N123" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O123" s="48" t="s">
+      <c r="O123" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P123" s="47" t="s">
+      <c r="P123" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q123" s="47" t="s">
+      <c r="Q123" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R123" s="47" t="s">
+      <c r="R123" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S123" s="49" t="s">
+      <c r="S123" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
-      <c r="V123" s="40"/>
+      <c r="V123" s="40">
+        <v>422</v>
+      </c>
       <c r="W123" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="124" ht="150.75">
+    <row r="124" ht="11.1" customHeight="1">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -8784,57 +8884,59 @@
         <v>61</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F124" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="J124" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="J124" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K124" s="47"/>
-      <c r="L124" s="47"/>
-      <c r="M124" s="47" t="s">
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N124" s="47" t="s">
+      <c r="N124" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O124" s="48" t="s">
+      <c r="O124" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P124" s="47" t="s">
+      <c r="P124" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q124" s="47" t="s">
+      <c r="Q124" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R124" s="47" t="s">
+      <c r="R124" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S124" s="49" t="s">
+      <c r="S124" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
-      <c r="V124" s="40"/>
+      <c r="V124" s="40">
+        <v>422</v>
+      </c>
       <c r="W124" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="125" ht="150.75">
+    <row r="125" ht="11.1" customHeight="1">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -8845,57 +8947,59 @@
         <v>61</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F125" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="J125" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="J125" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K125" s="47"/>
-      <c r="L125" s="47"/>
-      <c r="M125" s="47" t="s">
+      <c r="K125" s="38"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N125" s="47" t="s">
+      <c r="N125" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O125" s="48" t="s">
+      <c r="O125" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P125" s="47" t="s">
+      <c r="P125" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q125" s="47" t="s">
+      <c r="Q125" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R125" s="47" t="s">
+      <c r="R125" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S125" s="49" t="s">
+      <c r="S125" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
-      <c r="V125" s="40"/>
+      <c r="V125" s="40">
+        <v>422</v>
+      </c>
       <c r="W125" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" ht="150.75">
+    <row r="126" ht="11.1" customHeight="1">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -8906,57 +9010,59 @@
         <v>61</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F126" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G126" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="J126" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J126" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K126" s="47"/>
-      <c r="L126" s="47"/>
-      <c r="M126" s="47" t="s">
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N126" s="47" t="s">
+      <c r="N126" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O126" s="48" t="s">
+      <c r="O126" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P126" s="47" t="s">
+      <c r="P126" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q126" s="47" t="s">
+      <c r="Q126" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R126" s="47" t="s">
+      <c r="R126" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S126" s="49" t="s">
+      <c r="S126" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
-      <c r="V126" s="40"/>
+      <c r="V126" s="40">
+        <v>422</v>
+      </c>
       <c r="W126" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" ht="202.5" customHeight="1">
+    <row r="127" ht="11.1" customHeight="1">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -8967,57 +9073,59 @@
         <v>61</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F127" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G127" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="J127" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J127" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K127" s="47"/>
-      <c r="L127" s="47"/>
-      <c r="M127" s="47" t="s">
+      <c r="K127" s="38"/>
+      <c r="L127" s="38"/>
+      <c r="M127" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N127" s="47" t="s">
+      <c r="N127" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O127" s="48" t="s">
+      <c r="O127" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P127" s="47" t="s">
+      <c r="P127" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q127" s="47" t="s">
+      <c r="Q127" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R127" s="47" t="s">
+      <c r="R127" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S127" s="49" t="s">
+      <c r="S127" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
-      <c r="V127" s="40"/>
+      <c r="V127" s="40">
+        <v>422</v>
+      </c>
       <c r="W127" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="128" ht="150.75">
+    <row r="128" ht="11.1" customHeight="1">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -9028,57 +9136,59 @@
         <v>61</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F128" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G128" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="J128" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J128" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K128" s="47"/>
-      <c r="L128" s="47"/>
-      <c r="M128" s="47" t="s">
+      <c r="K128" s="38"/>
+      <c r="L128" s="38"/>
+      <c r="M128" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N128" s="47" t="s">
+      <c r="N128" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O128" s="48" t="s">
+      <c r="O128" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P128" s="47" t="s">
+      <c r="P128" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q128" s="47" t="s">
+      <c r="Q128" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R128" s="47" t="s">
+      <c r="R128" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S128" s="49" t="s">
+      <c r="S128" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T128" s="38"/>
       <c r="U128" s="39"/>
-      <c r="V128" s="40"/>
+      <c r="V128" s="40">
+        <v>422</v>
+      </c>
       <c r="W128" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" ht="150.75">
+    <row r="129" ht="11.1" customHeight="1">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -9089,57 +9199,59 @@
         <v>61</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G129" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="J129" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="J129" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K129" s="47"/>
-      <c r="L129" s="47"/>
-      <c r="M129" s="47" t="s">
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N129" s="47" t="s">
+      <c r="N129" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O129" s="48" t="s">
+      <c r="O129" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P129" s="47" t="s">
+      <c r="P129" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q129" s="47" t="s">
+      <c r="Q129" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R129" s="47" t="s">
+      <c r="R129" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S129" s="49" t="s">
+      <c r="S129" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T129" s="38"/>
       <c r="U129" s="39"/>
-      <c r="V129" s="40"/>
+      <c r="V129" s="40">
+        <v>400</v>
+      </c>
       <c r="W129" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" ht="127.5" customHeight="1">
+    <row r="130" ht="11.1" customHeight="1">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -9150,52 +9262,54 @@
         <v>61</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F130" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="J130" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="J130" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K130" s="47"/>
-      <c r="L130" s="47"/>
-      <c r="M130" s="47" t="s">
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N130" s="47" t="s">
+      <c r="N130" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O130" s="48" t="s">
+      <c r="O130" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P130" s="47" t="s">
+      <c r="P130" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q130" s="47" t="s">
+      <c r="Q130" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R130" s="47" t="s">
+      <c r="R130" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S130" s="49" t="s">
+      <c r="S130" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
-      <c r="V130" s="40"/>
+      <c r="V130" s="40">
+        <v>422</v>
+      </c>
       <c r="W130" s="38" t="s">
         <v>54</v>
       </c>
@@ -9211,10 +9325,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -9248,10 +9362,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -9285,10 +9399,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -9322,10 +9436,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9359,10 +9473,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9396,10 +9510,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9433,10 +9547,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -9470,10 +9584,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9507,10 +9621,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9544,10 +9658,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9581,10 +9695,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9618,10 +9732,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9655,10 +9769,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9692,10 +9806,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9729,10 +9843,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9766,10 +9880,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9803,10 +9917,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9829,7 +9943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" hidden="1" ht="11.1" customHeight="1">
+    <row r="148" ht="11.1" customHeight="1">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -9837,19 +9951,29 @@
         <v>47</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="38"/>
+        <v>360</v>
+      </c>
+      <c r="F148" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G148" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="H148" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="I148" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="J148" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K148" s="38"/>
       <c r="L148" s="38"/>
       <c r="M148" s="38"/>
@@ -9866,7 +9990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" hidden="1" ht="11.1" customHeight="1">
+    <row r="149" ht="11.1" customHeight="1">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -9874,19 +9998,29 @@
         <v>47</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="38"/>
+        <v>365</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="H149" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="I149" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J149" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K149" s="38"/>
       <c r="L149" s="38"/>
       <c r="M149" s="38"/>
@@ -9911,13 +10045,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9948,10 +10082,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E151" s="43" t="s">
         <v>53</v>
@@ -9985,10 +10119,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E152" s="43" t="s">
         <v>78</v>
@@ -10022,13 +10156,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -10059,13 +10193,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -10096,13 +10230,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -10133,13 +10267,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -10170,13 +10304,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -10207,13 +10341,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -10244,13 +10378,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -10281,13 +10415,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -10318,13 +10452,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -10355,13 +10489,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -10392,13 +10526,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10421,7 +10555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" ht="150.75">
+    <row r="164" ht="11.1" customHeight="1">
       <c r="A164" s="35">
         <v>448</v>
       </c>
@@ -10432,49 +10566,35 @@
         <v>61</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F164" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G164" s="37" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="I164" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="J164" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="J164" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
-      <c r="M164" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="N164" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="O164" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P164" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q164" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="R164" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S164" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="K164" s="38"/>
+      <c r="L164" s="38"/>
+      <c r="M164" s="38"/>
+      <c r="N164" s="38"/>
+      <c r="O164" s="38"/>
+      <c r="P164" s="38"/>
+      <c r="Q164" s="38"/>
+      <c r="R164" s="38"/>
+      <c r="S164" s="38"/>
       <c r="T164" s="38"/>
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
@@ -10482,7 +10602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" ht="150.75">
+    <row r="165" ht="11.1" customHeight="1">
       <c r="A165" s="35">
         <v>449</v>
       </c>
@@ -10493,49 +10613,35 @@
         <v>61</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F165" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G165" s="37" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="J165" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J165" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K165" s="47"/>
-      <c r="L165" s="47"/>
-      <c r="M165" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="N165" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="O165" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P165" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q165" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="R165" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S165" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38"/>
       <c r="T165" s="38"/>
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
@@ -10543,7 +10649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" hidden="1" ht="11.1" customHeight="1">
+    <row r="166" ht="11.1" customHeight="1">
       <c r="A166" s="35">
         <v>450</v>
       </c>
@@ -10554,16 +10660,26 @@
         <v>55</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="38"/>
+        <v>405</v>
+      </c>
+      <c r="F166" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G166" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="H166" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="I166" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="J166" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K166" s="38"/>
       <c r="L166" s="38"/>
       <c r="M166" s="38"/>
@@ -10591,10 +10707,10 @@
         <v>55</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10617,7 +10733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" hidden="1" ht="11.1" customHeight="1">
+    <row r="168" ht="11.1" customHeight="1">
       <c r="A168" s="35">
         <v>452</v>
       </c>
@@ -10628,16 +10744,26 @@
         <v>48</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="38"/>
+        <v>411</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G168" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="H168" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="I168" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="J168" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K168" s="38"/>
       <c r="L168" s="38"/>
       <c r="M168" s="38"/>
@@ -10654,7 +10780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" hidden="1" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="35">
         <v>454</v>
       </c>
@@ -10665,16 +10791,26 @@
         <v>75</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="38"/>
+        <v>416</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G169" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="I169" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="J169" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
       <c r="M169" s="38"/>
@@ -10702,10 +10838,10 @@
         <v>75</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -10728,7 +10864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" hidden="1" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="35">
         <v>456</v>
       </c>
@@ -10739,16 +10875,26 @@
         <v>73</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="42"/>
-      <c r="J171" s="38"/>
+        <v>422</v>
+      </c>
+      <c r="F171" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G171" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="H171" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="I171" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="J171" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K171" s="38"/>
       <c r="L171" s="38"/>
       <c r="M171" s="38"/>
@@ -10765,7 +10911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" hidden="1" ht="11.1" customHeight="1">
+    <row r="172" ht="11.1" customHeight="1">
       <c r="A172" s="35">
         <v>457</v>
       </c>
@@ -10776,16 +10922,26 @@
         <v>73</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="42"/>
-      <c r="J172" s="38"/>
+        <v>426</v>
+      </c>
+      <c r="F172" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G172" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="H172" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="I172" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="J172" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K172" s="38"/>
       <c r="L172" s="38"/>
       <c r="M172" s="38"/>
@@ -10802,7 +10958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" hidden="1" ht="11.1" customHeight="1">
+    <row r="173" ht="11.1" customHeight="1">
       <c r="A173" s="35">
         <v>458</v>
       </c>
@@ -10813,16 +10969,26 @@
         <v>71</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="42"/>
-      <c r="J173" s="38"/>
+        <v>431</v>
+      </c>
+      <c r="F173" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="H173" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="I173" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="J173" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K173" s="38"/>
       <c r="L173" s="38"/>
       <c r="M173" s="38"/>
@@ -10850,10 +11016,10 @@
         <v>71</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10876,7 +11042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" hidden="1" ht="150.75">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="35">
         <v>460</v>
       </c>
@@ -10884,44 +11050,38 @@
         <v>47</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-      <c r="I175" s="42"/>
-      <c r="J175" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="H175" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I175" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="J175" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K175" s="47"/>
-      <c r="L175" s="47"/>
-      <c r="M175" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="N175" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="O175" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P175" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q175" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="R175" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S175" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="K175" s="38"/>
+      <c r="L175" s="38"/>
+      <c r="M175" s="38"/>
+      <c r="N175" s="38"/>
+      <c r="O175" s="38"/>
+      <c r="P175" s="38"/>
+      <c r="Q175" s="38"/>
+      <c r="R175" s="38"/>
+      <c r="S175" s="38"/>
       <c r="T175" s="38"/>
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
@@ -10929,7 +11089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" ht="150.75">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="35">
         <v>461</v>
       </c>
@@ -10940,52 +11100,54 @@
         <v>61</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="F176" s="35" t="s">
         <v>63</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="I176" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="J176" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="J176" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K176" s="47"/>
-      <c r="L176" s="47"/>
-      <c r="M176" s="47" t="s">
+      <c r="K176" s="38"/>
+      <c r="L176" s="35"/>
+      <c r="M176" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N176" s="47" t="s">
+      <c r="N176" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O176" s="48" t="s">
+      <c r="O176" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="P176" s="47" t="s">
+      <c r="P176" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q176" s="47" t="s">
+      <c r="Q176" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R176" s="47" t="s">
+      <c r="R176" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S176" s="49" t="s">
+      <c r="S176" s="35" t="s">
         <v>70</v>
       </c>
       <c r="T176" s="38"/>
-      <c r="U176" s="39"/>
-      <c r="V176" s="40"/>
+      <c r="U176" s="35"/>
+      <c r="V176" s="35">
+        <v>422</v>
+      </c>
       <c r="W176" s="35" t="s">
         <v>54</v>
       </c>
@@ -11001,10 +11163,10 @@
         <v>59</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -11038,10 +11200,10 @@
         <v>75</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -11075,10 +11237,10 @@
         <v>71</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -11112,10 +11274,10 @@
         <v>73</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -11149,10 +11311,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="E181" s="44" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -11175,7 +11337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" hidden="1" ht="150.75">
+    <row r="182" hidden="1" ht="14.25" customHeight="1">
       <c r="A182" s="35">
         <v>467</v>
       </c>
@@ -11186,49 +11348,33 @@
         <v>55</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
-      <c r="J182" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="K182" s="47"/>
-      <c r="L182" s="47"/>
-      <c r="M182" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="N182" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="O182" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P182" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q182" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="R182" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S182" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="J182" s="38"/>
+      <c r="K182" s="38"/>
+      <c r="L182" s="35"/>
+      <c r="M182" s="38"/>
+      <c r="N182" s="38"/>
+      <c r="O182" s="35"/>
+      <c r="P182" s="38"/>
+      <c r="Q182" s="38"/>
+      <c r="R182" s="38"/>
+      <c r="S182" s="35"/>
       <c r="T182" s="38"/>
-      <c r="U182" s="39"/>
-      <c r="V182" s="40"/>
+      <c r="U182" s="35"/>
+      <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="183" ht="150.75">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="35">
         <v>468</v>
       </c>
@@ -11239,52 +11385,54 @@
         <v>61</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="F183" s="35" t="s">
         <v>63</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="I183" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="J183" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="J183" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K183" s="47"/>
-      <c r="L183" s="47"/>
-      <c r="M183" s="47" t="s">
+      <c r="K183" s="38"/>
+      <c r="L183" s="35"/>
+      <c r="M183" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N183" s="47" t="s">
+      <c r="N183" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O183" s="48" t="s">
+      <c r="O183" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="P183" s="47" t="s">
+      <c r="P183" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q183" s="47" t="s">
+      <c r="Q183" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R183" s="47" t="s">
+      <c r="R183" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S183" s="49" t="s">
+      <c r="S183" s="35" t="s">
         <v>70</v>
       </c>
       <c r="T183" s="38"/>
-      <c r="U183" s="39"/>
-      <c r="V183" s="40"/>
+      <c r="U183" s="35"/>
+      <c r="V183" s="35">
+        <v>400</v>
+      </c>
       <c r="W183" s="35" t="s">
         <v>54</v>
       </c>
@@ -11300,10 +11448,10 @@
         <v>57</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -11334,13 +11482,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -11363,7 +11511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" hidden="1" ht="14.25" customHeight="1">
+    <row r="186" ht="120.75">
       <c r="A186" s="35">
         <v>471</v>
       </c>
@@ -11374,16 +11522,26 @@
         <v>59</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E186" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
-      <c r="I186" s="42"/>
-      <c r="J186" s="38"/>
+        <v>465</v>
+      </c>
+      <c r="F186" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G186" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="H186" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="I186" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="J186" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="K186" s="38"/>
       <c r="L186" s="38"/>
       <c r="M186" s="38"/>
@@ -11411,10 +11569,10 @@
         <v>59</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -11448,10 +11606,10 @@
         <v>48</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -11474,7 +11632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" hidden="1" ht="14.25" customHeight="1">
+    <row r="189" hidden="1" ht="105.75">
       <c r="A189" s="35">
         <v>474</v>
       </c>
@@ -11485,10 +11643,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -11511,7 +11669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" ht="150.75">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="35">
         <v>475</v>
       </c>
@@ -11522,52 +11680,54 @@
         <v>61</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="F190" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G190" s="37" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="I190" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="J190" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="J190" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K190" s="47"/>
-      <c r="L190" s="47"/>
-      <c r="M190" s="47" t="s">
+      <c r="K190" s="38"/>
+      <c r="L190" s="38"/>
+      <c r="M190" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N190" s="47" t="s">
+      <c r="N190" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O190" s="48" t="s">
+      <c r="O190" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P190" s="47" t="s">
+      <c r="P190" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q190" s="47" t="s">
+      <c r="Q190" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R190" s="47" t="s">
+      <c r="R190" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S190" s="49" t="s">
+      <c r="S190" s="38" t="s">
         <v>70</v>
       </c>
       <c r="T190" s="38"/>
       <c r="U190" s="39"/>
-      <c r="V190" s="40"/>
+      <c r="V190" s="40">
+        <v>400</v>
+      </c>
       <c r="W190" s="38" t="s">
         <v>54</v>
       </c>
@@ -11583,10 +11743,10 @@
         <v>57</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -11620,10 +11780,10 @@
         <v>57</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -11657,10 +11817,10 @@
         <v>57</v>
       </c>
       <c r="D193" s="35" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="E193" s="45" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
@@ -15641,10 +15801,10 @@
     <row r="750" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells>
@@ -15660,7 +15820,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -15668,13 +15828,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J193 M10:N193 P10:R193</xm:sqref>
+          <xm:sqref>P32:R193 J10:J193 P10:R30 M10:N30 M32:N193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T193</xm:sqref>
+          <xm:sqref>T10:T30 T32:T193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
@@ -15700,42 +15860,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -15766,22 +15926,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -15789,13 +15949,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -15803,13 +15963,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -15817,13 +15977,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -15831,13 +15991,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -15845,13 +16005,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7">
@@ -15859,13 +16019,13 @@
         <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
@@ -15873,13 +16033,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9">
@@ -15887,41 +16047,41 @@
         <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" ht="45">
       <c r="A10" s="5" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -16908,7 +17068,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -16916,7 +17076,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>69</v>
@@ -17945,6 +18105,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18088,15 +18257,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -18115,6 +18275,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18132,14 +18300,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
